--- a/s2cDNASample/s2cDNASample_1344.xlsx
+++ b/s2cDNASample/s2cDNASample_1344.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/s2cDNASample/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{361E2149-77F7-AF40-83F5-50BCCEF1995B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E281D20-EA16-7E4E-A054-DFA7F61DD73B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="16380" windowHeight="18920" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="21940" windowHeight="13940" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="10">
   <si>
     <t>s1cDNADate</t>
   </si>
@@ -51,9 +51,6 @@
     <t>09.16.14</t>
   </si>
   <si>
-    <t>Retrofitted_1344</t>
-  </si>
-  <si>
     <t>SuperScriptIII</t>
   </si>
   <si>
@@ -64,28 +61,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -96,7 +78,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -104,36 +86,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -451,7 +409,7 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" activeCellId="1" sqref="B3:B22 E2:E22"/>
+      <selection activeCell="B23" sqref="B23:B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -459,35 +417,35 @@
     <col min="1" max="1025" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -496,21 +454,21 @@
         <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="G2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -519,21 +477,21 @@
         <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F3">
         <v>2</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="G3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -542,21 +500,21 @@
         <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F4">
         <v>3</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="G4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -565,21 +523,21 @@
         <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F5">
         <v>4</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="G5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -588,21 +546,21 @@
         <v>7</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F6">
         <v>5</v>
       </c>
-      <c r="G6" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="G6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7">
         <v>6</v>
@@ -611,21 +569,21 @@
         <v>7</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F7">
         <v>6</v>
       </c>
-      <c r="G7" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="G7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8">
         <v>7</v>
@@ -634,21 +592,21 @@
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F8">
         <v>7</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="G8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9">
         <v>8</v>
@@ -657,21 +615,21 @@
         <v>7</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F9">
         <v>8</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="G9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C10">
         <v>9</v>
@@ -680,21 +638,21 @@
         <v>7</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F10">
         <v>9</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="G10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C11">
         <v>10</v>
@@ -703,21 +661,21 @@
         <v>7</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F11">
         <v>10</v>
       </c>
-      <c r="G11" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="G11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C12">
         <v>11</v>
@@ -726,21 +684,21 @@
         <v>7</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F12">
         <v>11</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="G12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C13">
         <v>12</v>
@@ -749,21 +707,21 @@
         <v>7</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F13">
         <v>12</v>
       </c>
-      <c r="G13" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="G13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C14">
         <v>13</v>
@@ -772,21 +730,21 @@
         <v>7</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F14">
         <v>13</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="G14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C15">
         <v>14</v>
@@ -795,21 +753,21 @@
         <v>7</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F15">
         <v>14</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="G15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C16">
         <v>15</v>
@@ -818,21 +776,21 @@
         <v>7</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F16">
         <v>15</v>
       </c>
-      <c r="G16" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="G16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>7</v>
       </c>
       <c r="B17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C17">
         <v>16</v>
@@ -841,21 +799,21 @@
         <v>7</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F17">
         <v>16</v>
       </c>
-      <c r="G17" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="G17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>7</v>
       </c>
       <c r="B18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C18">
         <v>17</v>
@@ -864,21 +822,21 @@
         <v>7</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F18">
         <v>17</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="G18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>7</v>
       </c>
       <c r="B19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C19">
         <v>18</v>
@@ -887,21 +845,21 @@
         <v>7</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F19">
         <v>18</v>
       </c>
-      <c r="G19" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="G19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>7</v>
       </c>
       <c r="B20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C20">
         <v>19</v>
@@ -910,21 +868,21 @@
         <v>7</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F20">
         <v>19</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="G20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>7</v>
       </c>
       <c r="B21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C21">
         <v>20</v>
@@ -933,21 +891,21 @@
         <v>7</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F21">
         <v>20</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="G21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>7</v>
       </c>
       <c r="B22" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C22">
         <v>21</v>
@@ -956,21 +914,21 @@
         <v>7</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F22">
         <v>21</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="G22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>7</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23">
         <v>22</v>
@@ -979,21 +937,21 @@
         <v>7</v>
       </c>
       <c r="E23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F23">
         <v>22</v>
       </c>
-      <c r="G23" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="G23" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>7</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24">
         <v>23</v>
@@ -1002,13 +960,13 @@
         <v>7</v>
       </c>
       <c r="E24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F24">
         <v>23</v>
       </c>
-      <c r="G24" s="3" t="s">
-        <v>9</v>
+      <c r="G24" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
